--- a/empresas_b3.xlsx
+++ b/empresas_b3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanilodaCruzFerraz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478DC4E2-4D20-43DB-B37E-9E3FD0B41D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7236F5-5861-42F7-93FB-BA7B12A05DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36289,33 +36289,15 @@
     <t>WETZEL SA</t>
   </si>
   <si>
-    <t>BEMOL SA.</t>
-  </si>
-  <si>
-    <t>CLI SUL SA.</t>
-  </si>
-  <si>
     <t>COLORADO SA</t>
   </si>
   <si>
-    <t>CTC SA.</t>
-  </si>
-  <si>
     <t>DA MATA SA</t>
   </si>
   <si>
-    <t>ED.SANARSA.</t>
-  </si>
-  <si>
     <t>EMIVE SA</t>
   </si>
   <si>
-    <t>FABRIMARSA.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FRIGOL SA. </t>
-  </si>
-  <si>
     <t>HMOBI SA</t>
   </si>
   <si>
@@ -36325,40 +36307,58 @@
     <t>COLOMBO SA</t>
   </si>
   <si>
-    <t>NUVINI SA.</t>
-  </si>
-  <si>
     <t>OCEANICA SA</t>
   </si>
   <si>
-    <t>ROGGA SA.</t>
-  </si>
-  <si>
-    <t>RUMO SA.</t>
-  </si>
-  <si>
-    <t>SAPORE SA.</t>
-  </si>
-  <si>
-    <t>SUZANO SA.</t>
-  </si>
-  <si>
-    <t>VERO SA.</t>
-  </si>
-  <si>
     <t>VIVA SA</t>
   </si>
   <si>
-    <t>VIVARA SA.</t>
-  </si>
-  <si>
-    <t>AGASUS SA.</t>
-  </si>
-  <si>
-    <t>WINITY SA.</t>
-  </si>
-  <si>
-    <t>ZAMP SA.</t>
+    <t>BEMOL SA</t>
+  </si>
+  <si>
+    <t>CLI SUL SA</t>
+  </si>
+  <si>
+    <t>CTC SA</t>
+  </si>
+  <si>
+    <t>ED.SANARSA</t>
+  </si>
+  <si>
+    <t>FABRIMARSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FRIGOL SA </t>
+  </si>
+  <si>
+    <t>NUVINI SA</t>
+  </si>
+  <si>
+    <t>ROGGA SA</t>
+  </si>
+  <si>
+    <t>RUMO SA</t>
+  </si>
+  <si>
+    <t>SAPORE SA</t>
+  </si>
+  <si>
+    <t>SUZANO SA</t>
+  </si>
+  <si>
+    <t>VERO SA</t>
+  </si>
+  <si>
+    <t>VIVARA SA</t>
+  </si>
+  <si>
+    <t>AGASUS SA</t>
+  </si>
+  <si>
+    <t>WINITY SA</t>
+  </si>
+  <si>
+    <t>ZAMP SA</t>
   </si>
 </sst>
 </file>
@@ -44522,7 +44522,7 @@
         <v>1643</v>
       </c>
       <c r="B390" t="s">
-        <v>12088</v>
+        <v>12096</v>
       </c>
       <c r="C390" t="s">
         <v>1644</v>
@@ -50762,7 +50762,7 @@
         <v>2949</v>
       </c>
       <c r="B702" t="s">
-        <v>12089</v>
+        <v>12097</v>
       </c>
       <c r="C702" t="s">
         <v>2950</v>
@@ -51062,7 +51062,7 @@
         <v>3011</v>
       </c>
       <c r="B717" t="s">
-        <v>12090</v>
+        <v>12088</v>
       </c>
       <c r="C717" t="s">
         <v>3012</v>
@@ -54782,7 +54782,7 @@
         <v>3766</v>
       </c>
       <c r="B903" t="s">
-        <v>12091</v>
+        <v>12098</v>
       </c>
       <c r="C903" t="s">
         <v>3767</v>
@@ -54962,7 +54962,7 @@
         <v>3807</v>
       </c>
       <c r="B912" t="s">
-        <v>12092</v>
+        <v>12089</v>
       </c>
       <c r="C912" t="s">
         <v>3808</v>
@@ -56482,7 +56482,7 @@
         <v>4123</v>
       </c>
       <c r="B988" t="s">
-        <v>12093</v>
+        <v>12099</v>
       </c>
       <c r="C988" t="s">
         <v>4124</v>
@@ -57182,7 +57182,7 @@
         <v>4271</v>
       </c>
       <c r="B1023" t="s">
-        <v>12094</v>
+        <v>12090</v>
       </c>
       <c r="C1023" t="s">
         <v>4272</v>
@@ -60122,7 +60122,7 @@
         <v>4870</v>
       </c>
       <c r="B1170" t="s">
-        <v>12095</v>
+        <v>12100</v>
       </c>
       <c r="C1170" t="s">
         <v>4871</v>
@@ -61622,7 +61622,7 @@
         <v>5176</v>
       </c>
       <c r="B1245" t="s">
-        <v>12096</v>
+        <v>12101</v>
       </c>
       <c r="C1245" t="s">
         <v>5177</v>
@@ -64982,7 +64982,7 @@
         <v>5870</v>
       </c>
       <c r="B1413" t="s">
-        <v>12097</v>
+        <v>12091</v>
       </c>
       <c r="C1413" t="s">
         <v>5871</v>
@@ -65582,7 +65582,7 @@
         <v>5995</v>
       </c>
       <c r="B1443" t="s">
-        <v>12098</v>
+        <v>12092</v>
       </c>
       <c r="C1443" t="s">
         <v>5996</v>
@@ -65782,7 +65782,7 @@
         <v>6036</v>
       </c>
       <c r="B1453" t="s">
-        <v>12099</v>
+        <v>12093</v>
       </c>
       <c r="C1453" t="s">
         <v>6037</v>
@@ -76702,7 +76702,7 @@
         <v>8297</v>
       </c>
       <c r="B1999" t="s">
-        <v>12100</v>
+        <v>12102</v>
       </c>
       <c r="C1999" t="s">
         <v>8298</v>
@@ -76842,7 +76842,7 @@
         <v>8324</v>
       </c>
       <c r="B2006" t="s">
-        <v>12101</v>
+        <v>12094</v>
       </c>
       <c r="C2006" t="s">
         <v>8325</v>
@@ -83142,7 +83142,7 @@
         <v>9625</v>
       </c>
       <c r="B2321" t="s">
-        <v>12102</v>
+        <v>12103</v>
       </c>
       <c r="C2321" t="s">
         <v>9626</v>
@@ -83402,7 +83402,7 @@
         <v>9679</v>
       </c>
       <c r="B2334" t="s">
-        <v>12103</v>
+        <v>12104</v>
       </c>
       <c r="C2334" t="s">
         <v>9680</v>
@@ -84682,7 +84682,7 @@
         <v>9942</v>
       </c>
       <c r="B2398" t="s">
-        <v>12104</v>
+        <v>12105</v>
       </c>
       <c r="C2398" t="s">
         <v>9943</v>
@@ -87782,7 +87782,7 @@
         <v>10572</v>
       </c>
       <c r="B2553" t="s">
-        <v>12105</v>
+        <v>12106</v>
       </c>
       <c r="C2553" t="s">
         <v>10573</v>
@@ -92762,7 +92762,7 @@
         <v>11595</v>
       </c>
       <c r="B2802" t="s">
-        <v>12106</v>
+        <v>12107</v>
       </c>
       <c r="C2802" t="s">
         <v>11596</v>
@@ -93782,7 +93782,7 @@
         <v>11803</v>
       </c>
       <c r="B2853" t="s">
-        <v>12107</v>
+        <v>12095</v>
       </c>
       <c r="C2853" t="s">
         <v>11804</v>

--- a/empresas_b3.xlsx
+++ b/empresas_b3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DanilodaCruzFerraz\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7236F5-5861-42F7-93FB-BA7B12A05DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB69318B-B0DC-4504-A8F2-E107289285F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17496" uniqueCount="12112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17496" uniqueCount="12111">
   <si>
     <t>Company Name</t>
   </si>
@@ -36341,9 +36341,6 @@
   </si>
   <si>
     <t>SAPORE SA</t>
-  </si>
-  <si>
-    <t>SUZANO SA</t>
   </si>
   <si>
     <t>VERO SA</t>
@@ -36724,7 +36721,7 @@
   <dimension ref="A1:F2916"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B2553" sqref="B2553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -87782,7 +87779,7 @@
         <v>10572</v>
       </c>
       <c r="B2553" t="s">
-        <v>12106</v>
+        <v>10572</v>
       </c>
       <c r="C2553" t="s">
         <v>10573</v>
@@ -92762,7 +92759,7 @@
         <v>11595</v>
       </c>
       <c r="B2802" t="s">
-        <v>12107</v>
+        <v>12106</v>
       </c>
       <c r="C2802" t="s">
         <v>11596</v>
@@ -93802,7 +93799,7 @@
         <v>11806</v>
       </c>
       <c r="B2854" t="s">
-        <v>12108</v>
+        <v>12107</v>
       </c>
       <c r="C2854" t="s">
         <v>11807</v>
@@ -93922,7 +93919,7 @@
         <v>11831</v>
       </c>
       <c r="B2860" t="s">
-        <v>12109</v>
+        <v>12108</v>
       </c>
       <c r="C2860" t="s">
         <v>11832</v>
@@ -94382,7 +94379,7 @@
         <v>11927</v>
       </c>
       <c r="B2883" t="s">
-        <v>12110</v>
+        <v>12109</v>
       </c>
       <c r="C2883" t="s">
         <v>11928</v>
@@ -95002,7 +94999,7 @@
         <v>12052</v>
       </c>
       <c r="B2914" t="s">
-        <v>12111</v>
+        <v>12110</v>
       </c>
       <c r="C2914" t="s">
         <v>12053</v>
